--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2522762.588539872</v>
+        <v>2638379.752188182</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445555.52943491</v>
+        <v>12445534.67060185</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9035136.777270446</v>
+        <v>9035140.763766481</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>227.2258086184461</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.382814765182</v>
+        <v>215.0845781150033</v>
       </c>
       <c r="G2" t="n">
-        <v>263.382814765182</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739393</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.538760120084432</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807533</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642688</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.3622687076297</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>105.098895259076</v>
+        <v>70.54155374269661</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.382814765182</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,70 +898,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
+        <v>244.8448976285501</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>94.38947840964019</v>
+        <v>80.84411069712804</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>12.25635214567194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>52.18159183428092</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.93598676617317</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>221.2967461902517</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.24979976115229</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>132.6026661256487</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.67904886623563</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.76250521077152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>112.6623392052984</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>166.6594061764988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0601483711165</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.0127623547350538</v>
       </c>
       <c r="D22" t="n">
-        <v>28.98177228777837</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>173.574028979552</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2606,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0891016767038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>78.71385496658219</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>66.85274231757755</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>20.43112068613155</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>99.86023999965182</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>132.6315337216688</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>4.444394634329087</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>118.6708469029954</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>899.1940867193454</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C2" t="n">
-        <v>899.1940867193454</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D2" t="n">
-        <v>899.1940867193454</v>
+        <v>367.789405660333</v>
       </c>
       <c r="E2" t="n">
-        <v>669.6730679128341</v>
+        <v>367.789405660333</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752765</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377189</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377189</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121456</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467391</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935574</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959993</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796008</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670369</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288998</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108073</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060728</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060728</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193454</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193454</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193454</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1940867193454</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>899.1940867193454</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X2" t="n">
-        <v>899.1940867193454</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>899.1940867193454</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>391.4092454853704</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>216.9562162042434</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>68.0218065429921</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121456</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121456</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>191.586434112467</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420743</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286613</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767112</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>908.336301274858</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062227</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060728</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155246</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155246</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155246</v>
+        <v>913.0754506043784</v>
       </c>
       <c r="U3" t="n">
-        <v>807.0210444558571</v>
+        <v>684.9396046411919</v>
       </c>
       <c r="V3" t="n">
-        <v>807.0210444558571</v>
+        <v>449.7874964094491</v>
       </c>
       <c r="W3" t="n">
-        <v>807.0210444558571</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="X3" t="n">
-        <v>599.1695442503243</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="Y3" t="n">
-        <v>391.4092454853704</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.07062518121456</v>
+        <v>353.1708304446448</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121456</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121456</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121456</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121456</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121456</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121456</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121456</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121456</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481202</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504858</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570833</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210611</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836361</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097378</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060728</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>947.370758799035</v>
+        <v>983.601425316432</v>
       </c>
       <c r="S4" t="n">
-        <v>740.5746775670964</v>
+        <v>983.601425316432</v>
       </c>
       <c r="T4" t="n">
-        <v>515.1034233167895</v>
+        <v>983.601425316432</v>
       </c>
       <c r="U4" t="n">
-        <v>515.1034233167895</v>
+        <v>983.601425316432</v>
       </c>
       <c r="V4" t="n">
-        <v>515.1034233167895</v>
+        <v>983.601425316432</v>
       </c>
       <c r="W4" t="n">
-        <v>249.0601760792319</v>
+        <v>983.601425316432</v>
       </c>
       <c r="X4" t="n">
-        <v>21.07062518121456</v>
+        <v>755.6118744184147</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.07062518121456</v>
+        <v>534.8192952748846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388466</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="E5" t="n">
-        <v>670.32375641013</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.46256898749989</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46256898749989</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749989</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749989</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749989</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.126243926395</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289999</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304909</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1021.314552263894</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U6" t="n">
-        <v>858.0464416374622</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V6" t="n">
-        <v>622.8943334057194</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="W6" t="n">
-        <v>368.6569766775178</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="X6" t="n">
-        <v>160.8054764719849</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="Y6" t="n">
-        <v>65.46256898749989</v>
+        <v>758.0498399683654</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.6378905447487</v>
+        <v>333.328140844591</v>
       </c>
       <c r="C7" t="n">
-        <v>48.70170761684176</v>
+        <v>333.328140844591</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434485</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434485</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165359</v>
+        <v>1002.146841385539</v>
       </c>
       <c r="U7" t="n">
-        <v>848.0684854165359</v>
+        <v>735.7691848183608</v>
       </c>
       <c r="V7" t="n">
-        <v>848.0684854165359</v>
+        <v>735.7691848183608</v>
       </c>
       <c r="W7" t="n">
-        <v>848.0684854165359</v>
+        <v>735.7691848183608</v>
       </c>
       <c r="X7" t="n">
-        <v>620.0789345185185</v>
+        <v>735.7691848183608</v>
       </c>
       <c r="Y7" t="n">
-        <v>399.2863553749884</v>
+        <v>514.9766056748307</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.500788950815</v>
+        <v>1405.509665247778</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.538272010403</v>
+        <v>1405.509665247778</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1405.509665247778</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1181.977598388938</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>770.9916935993303</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.1757437607431</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2435.830015762142</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2435.830015762142</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2182.248837287711</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926627</v>
+        <v>2182.248837287711</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926627</v>
+        <v>2182.248837287711</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926627</v>
+        <v>2182.248837287711</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950815</v>
+        <v>1792.1095053119</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.4887579637191</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735143</v>
+        <v>298.0857543148187</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049862</v>
+        <v>931.8250374996588</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1479.338790899458</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1866.423193372028</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2198.310003359418</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2445.345361789043</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2560.562760342788</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.0825277700245</v>
+        <v>621.657153008571</v>
       </c>
       <c r="C10" t="n">
-        <v>367.1463448421176</v>
+        <v>452.7209700806641</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>452.7209700806641</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>452.7209700806641</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.63468308380173</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.3850043368927</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>823.8653899904045</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1609.830712279147</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1609.830712279147</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1320.712338773789</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372449</v>
+        <v>1320.712338773789</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354878</v>
+        <v>1031.295168736828</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374705</v>
+        <v>803.3056178388107</v>
       </c>
       <c r="Y10" t="n">
-        <v>536.0825277700245</v>
+        <v>803.3056178388107</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5020,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,37 +5263,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5352,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.927936255316</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.358531127103</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855557</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5834,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>808.8888553856862</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5950,10 +5952,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6218,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407056</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,7 +6469,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6488,13 +6490,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1608.876909444017</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1319.459739407056</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6691,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>196.5408620426154</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
@@ -6926,19 +6928,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7163,13 +7165,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2192.573257978144</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1903.498031322342</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7439,22 +7441,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>979.2799367326791</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.4873575891489</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7730,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877268</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079252</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>96.89877181692523</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8149,10 +8151,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>162.203926715332</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167812</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.262887399594746</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084427</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.3103888136338</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348493</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>113.0473161837388</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>39.52450498097832</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2340587438928</v>
       </c>
       <c r="D22" t="n">
-        <v>119.633700730434</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>6.257951202385328</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>80.62055371233333</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>173.4237883572458</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>151.7319110345172</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>186.3242343895923</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>32.89260457060007</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>212.9610556929592</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>62.35543909864924</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794292.9347361422</v>
+        <v>794304.8756775925</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799255.8688129798</v>
+        <v>799247.2652848184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914273</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520051</v>
@@ -26332,25 +26334,25 @@
         <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909311</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680923272</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059439</v>
+        <v>390680.0076580804</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507909.2320606919</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642122</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774229963</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756989</v>
+        <v>95270.23779101799</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250434.6877614515</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139134.5471223412</v>
+        <v>139261.652755502</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,19 +26444,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557701</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336325.1460065326</v>
+        <v>-336635.033878895</v>
       </c>
       <c r="C6" t="n">
-        <v>343086.4763442061</v>
+        <v>343452.9467122983</v>
       </c>
       <c r="D6" t="n">
-        <v>33632.73252329748</v>
+        <v>33988.88790216521</v>
       </c>
       <c r="E6" t="n">
-        <v>26552.22001677136</v>
+        <v>26128.42958062465</v>
       </c>
       <c r="F6" t="n">
-        <v>534037.6616413171</v>
+        <v>534037.6616413164</v>
       </c>
       <c r="G6" t="n">
         <v>534037.6616413168</v>
@@ -26540,25 +26542,25 @@
         <v>534037.6616413166</v>
       </c>
       <c r="I6" t="n">
-        <v>534037.6616413168</v>
+        <v>534037.661641317</v>
       </c>
       <c r="J6" t="n">
-        <v>465125.1284548956</v>
+        <v>465038.5072222025</v>
       </c>
       <c r="K6" t="n">
-        <v>533952.4560435748</v>
+        <v>534037.661641317</v>
       </c>
       <c r="L6" t="n">
-        <v>438655.0155037465</v>
+        <v>438767.4238502988</v>
       </c>
       <c r="M6" t="n">
-        <v>401430.36791239</v>
+        <v>401319.6859458479</v>
       </c>
       <c r="N6" t="n">
-        <v>534037.6616413167</v>
+        <v>534037.6616413166</v>
       </c>
       <c r="O6" t="n">
-        <v>534037.6616413168</v>
+        <v>534037.6616413166</v>
       </c>
       <c r="P6" t="n">
         <v>534037.6616413166</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960525</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>933.702459562784</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.382814765182</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.1406900856971</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960525</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473425637</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480613</v>
+        <v>319.6474457933058</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>434.2730407788897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.382814765182</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363241502</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.426810084191</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651818</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363241502</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985332</v>
+        <v>376.426810084191</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.382814765182</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363241502</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.426810084191</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>154.7045614538156</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765294</v>
+        <v>191.7914676267081</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708735</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>155.1063203353165</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>54.47871887724708</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825639</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.42881521281028</v>
+        <v>56.96304914096733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>264.9578041138324</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>167.9892770171599</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.2932173676642</v>
+        <v>124.8385850801763</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>136.3591208725404</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>171.0327540452849</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>310.7470548545098</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>160.6336238820101</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27980,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164525076</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>168.9948013841488</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>179.8221481413233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079606</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524902</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646661</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029079</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933477</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876053</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460622</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061222</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316493</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231215</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.453296897333</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753594</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827659</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142098</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263684</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410377</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>12.7502036914897</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333975</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435874</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970827</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289725</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963486</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682323</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466128</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439956</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774369</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621625</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564887</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312001</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868542485796301</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058028</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923512</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841638</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823532</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653056</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.495680519571</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187288</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148693</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005029</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770392</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528319</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735299</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.72904772047778</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354621</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31300,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31461,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.753577726885561</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.4691627763196</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.3427171354937</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.0954050359948</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>669.7602577525084</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.4356192307901</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.7691690983027</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.3441667542134</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.53465245140481</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.14683309026279</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.3030514502172</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.0654741571286</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>508.8678404617173</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.336058015222</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>477.8354464519089</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.5050724947594</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.095024154133945</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.63422518415886</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.6559590462353</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.70643221307424</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.19410091794276</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09183958618650344</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32554,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33023,28 +33025,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33265,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,31 +33736,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33974,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,10 +34450,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L45" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622163</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836716</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176181</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187895</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095313</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099626</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678519</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288353</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.238190839649</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490983</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743303</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684899</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021684</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296654</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141542</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564704</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256218</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814116</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979574</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>180.1883115783585</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653964</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009534</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>197.7888359819415</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.8797653960911</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.379311731339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.5763021655064</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>428.7491718087221</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.3471941559175</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.3374078091033</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.5361733430331</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.20013907234321</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.90656844127608</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>186.4616124758582</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>640.1406900856971</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>553.0441953533327</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>390.9943459318887</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.2392020074645</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.6802301787333</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9175350357668</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.82702814228601</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37321,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L45" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2638379.752188182</v>
+        <v>2634075.412378313</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9035140.763766481</v>
+        <v>9035140.763766479</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>215.0845781150033</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.3622687076297</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>79.84453991653724</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.54155374269661</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.0177450887251</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>244.8448976285501</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>80.84411069712804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.18159183428092</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>221.2967461902517</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>262.6118190159032</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115229</v>
+        <v>20.24979976115225</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256487</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099121</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>2.529554198297526</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>25.67904886623563</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>112.6623392052984</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>179.0601483711165</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0127623547350538</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.574028979552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.85274231757755</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>99.86023999965182</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>4.444394634329087</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.789405660333</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>367.789405660333</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D2" t="n">
-        <v>367.789405660333</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>367.789405660333</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.167062227511</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>787.653248772002</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4412,10 +4412,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267547</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>913.0754506043784</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>684.9396046411919</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>449.7874964094491</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>195.5501396812475</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>195.5501396812475</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>195.5501396812475</v>
+        <v>955.86858579207</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.1708304446448</v>
+        <v>337.9463869104205</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2346475167379</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4494,16 +4494,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>983.601425316432</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>983.601425316432</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>983.601425316432</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>983.601425316432</v>
+        <v>813.4234542598375</v>
       </c>
       <c r="V4" t="n">
-        <v>983.601425316432</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="W4" t="n">
-        <v>983.601425316432</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="X4" t="n">
-        <v>755.6118744184147</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="Y4" t="n">
-        <v>534.8192952748846</v>
+        <v>337.9463869104205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>534.7928453799753</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>534.7928453799753</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>534.7928453799753</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>268.4151888127974</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>534.7928453799753</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758.0498399683654</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>758.0498399683654</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>609.1154303071141</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519934</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>839.7105578442523</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>839.7105578442523</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>839.7105578442523</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>758.0498399683654</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.328140844591</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>333.328140844591</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
         <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4734,10 +4734,10 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075542</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1002.146841385539</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>735.7691848183608</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>735.7691848183608</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>735.7691848183608</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>735.7691848183608</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.9766056748307</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.509665247778</v>
+        <v>1840.478091794297</v>
       </c>
       <c r="C8" t="n">
-        <v>1405.509665247778</v>
+        <v>1471.515574853886</v>
       </c>
       <c r="D8" t="n">
-        <v>1405.509665247778</v>
+        <v>1113.249876247135</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.977598388938</v>
+        <v>727.461623648891</v>
       </c>
       <c r="F8" t="n">
-        <v>770.9916935993303</v>
+        <v>316.4757188592834</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607431</v>
+        <v>442.1757437607441</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904594</v>
+        <v>795.1862829045958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762142</v>
+        <v>2435.830015762146</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762142</v>
+        <v>2227.077931858419</v>
       </c>
       <c r="U8" t="n">
-        <v>2182.248837287711</v>
+        <v>2227.077931858419</v>
       </c>
       <c r="V8" t="n">
-        <v>2182.248837287711</v>
+        <v>2227.077931858419</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.248837287711</v>
+        <v>2227.077931858419</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.248837287711</v>
+        <v>2227.077931858419</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.1095053119</v>
+        <v>2227.077931858419</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993894</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>143.0521112394768</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148187</v>
+        <v>589.4696922330294</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996588</v>
+        <v>884.0056756665115</v>
       </c>
       <c r="M9" t="n">
-        <v>1479.338790899458</v>
+        <v>1247.072144140814</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372028</v>
+        <v>1634.156546613384</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359418</v>
+        <v>1966.043356600774</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789043</v>
+        <v>2213.078715030399</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342788</v>
+        <v>2536.272628442635</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251708</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.657153008571</v>
+        <v>833.8859175407116</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7209700806641</v>
+        <v>664.9497346128047</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7209700806641</v>
+        <v>514.833095200469</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7209700806641</v>
+        <v>514.833095200469</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8310225827537</v>
+        <v>367.9431477025586</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>199.9560228422493</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380173</v>
+        <v>76.63468308380189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676573</v>
+        <v>248.2500215676575</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368927</v>
+        <v>523.3850043368932</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904045</v>
+        <v>823.8653899904052</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="S10" t="n">
-        <v>1609.830712279147</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="T10" t="n">
-        <v>1609.830712279147</v>
+        <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>1320.712338773789</v>
+        <v>1346.650771972008</v>
       </c>
       <c r="V10" t="n">
-        <v>1320.712338773789</v>
+        <v>1346.650771972008</v>
       </c>
       <c r="W10" t="n">
-        <v>1031.295168736828</v>
+        <v>1057.233601935047</v>
       </c>
       <c r="X10" t="n">
-        <v>803.3056178388107</v>
+        <v>1057.233601935047</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.3056178388107</v>
+        <v>836.4410227915172</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5047,22 +5047,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5178,34 +5178,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>295.5818533952728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>148.6919058973624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2192.573257978144</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1903.498031322342</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1648.813543116455</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1359.396373079494</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,40 +7420,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,22 +7663,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775127</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>29.86197300581566</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084427</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.3103888136338</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348493</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>113.0473161837388</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.52450498097832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2340587438928</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.257951202385328</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.7319110345172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.3242343895923</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>212.9610556929592</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580804</v>
+        <v>390680.0076580812</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606919</v>
+        <v>507909.2320606909</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101799</v>
+        <v>95270.23779101825</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.652755502</v>
+        <v>139261.6527555017</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26459,7 +26459,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678118</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567915</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336635.033878895</v>
+        <v>-336635.0338788946</v>
       </c>
       <c r="C6" t="n">
-        <v>343452.9467122983</v>
+        <v>343452.9467122984</v>
       </c>
       <c r="D6" t="n">
-        <v>33988.88790216521</v>
+        <v>33988.88790216442</v>
       </c>
       <c r="E6" t="n">
-        <v>26128.42958062465</v>
+        <v>25781.05032626843</v>
       </c>
       <c r="F6" t="n">
-        <v>534037.6616413164</v>
+        <v>533690.2823869596</v>
       </c>
       <c r="G6" t="n">
-        <v>534037.6616413168</v>
+        <v>533690.2823869594</v>
       </c>
       <c r="H6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869595</v>
       </c>
       <c r="I6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869594</v>
       </c>
       <c r="J6" t="n">
-        <v>465038.5072222025</v>
+        <v>464691.1279678452</v>
       </c>
       <c r="K6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869599</v>
       </c>
       <c r="L6" t="n">
-        <v>438767.4238502988</v>
+        <v>438420.0445959413</v>
       </c>
       <c r="M6" t="n">
-        <v>401319.6859458479</v>
+        <v>400972.306691491</v>
       </c>
       <c r="N6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869595</v>
       </c>
       <c r="O6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869594</v>
       </c>
       <c r="P6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869599</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562784</v>
+        <v>933.7024595627846</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856971</v>
+        <v>640.1406900856982</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933058</v>
+        <v>319.6474457933062</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788897</v>
+        <v>434.2730407788889</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841921</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084191</v>
+        <v>376.4268100841921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139499</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>191.7914676267081</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.6689735381485</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>54.47871887724708</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>125.8381558607671</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>56.96304914096733</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>47.24088541395233</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>135.2380307610665</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>167.9892770171599</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27672,7 +27672,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>124.8385850801763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>171.0327540452849</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>160.6336238820101</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>148.9373407723463</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465017</v>
+        <v>65.76608425465008</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164525076</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164520784</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>177.3024259836398</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>168.9948013841488</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885561</v>
+        <v>3.753577726885563</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546678</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972539</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763196</v>
+        <v>477.4691627763199</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354937</v>
+        <v>592.342717135494</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359948</v>
+        <v>659.0954050359952</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525084</v>
+        <v>669.7602577525089</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307901</v>
+        <v>632.4356192307905</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983027</v>
+        <v>539.769169098303</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542134</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140481</v>
+        <v>85.53465245140487</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.300286218150845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436933</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026279</v>
+        <v>69.14683309026283</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502172</v>
+        <v>324.3030514502174</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571286</v>
+        <v>436.0654741571288</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617173</v>
+        <v>508.8678404617175</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015222</v>
+        <v>522.3360580152223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519089</v>
+        <v>477.8354464519092</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947594</v>
+        <v>383.5050724947596</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366406</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133945</v>
+        <v>8.09502415413395</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419035</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
         <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415886</v>
+        <v>50.63422518415889</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.931664102313</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462353</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307424</v>
+        <v>75.70643221307428</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794276</v>
+        <v>7.194100917942764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650344</v>
+        <v>0.09183958618650349</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572285</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204529</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>197.7888359819415</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705676</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731339</v>
+        <v>257.3793117313393</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655064</v>
+        <v>356.5763021655068</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087221</v>
+        <v>428.7491718087225</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559175</v>
+        <v>440.347194155918</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091033</v>
+        <v>402.3374078091038</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430331</v>
+        <v>308.5361733430335</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797642</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234321</v>
+        <v>20.20013907234335</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127608</v>
+        <v>92.76854144709185</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758582</v>
+        <v>450.926849488437</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1406900856971</v>
+        <v>297.5110943772547</v>
       </c>
       <c r="M9" t="n">
-        <v>553.0441953533327</v>
+        <v>366.7338065396992</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318887</v>
+        <v>390.994345931889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074645</v>
+        <v>335.2392020074648</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804292</v>
+        <v>249.5306650804294</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>326.4584983961982</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783596</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787333</v>
+        <v>25.68023017873337</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.9141240093289</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.788131425464</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186655</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357668</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228601</v>
+        <v>54.8270281422861</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,13 +36846,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2634075.412378313</v>
+        <v>2635835.942681099</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>66.67731766039434</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.84453991653724</v>
+        <v>187.5594555679514</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.0177450887251</v>
+        <v>240.0306597123633</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="E5" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="F5" t="n">
         <v>219.4450108596164</v>
-      </c>
-      <c r="E5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="F5" t="n">
-        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187183</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>28.33708868093433</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>48.20279434449701</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>262.6118190159032</v>
+        <v>289.3766213448608</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592525</v>
       </c>
       <c r="H9" t="n">
         <v>92.83909691614502</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099121</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.529554198297526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>90.06308666747644</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.97427419833816</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712621</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>100.5858322992699</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243022</v>
+        <v>634.1670622275112</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.653248772002</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4439,22 +4439,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.86858579207</v>
+        <v>650.2565623210693</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.9463869104205</v>
+        <v>336.9232408259378</v>
       </c>
       <c r="C4" t="n">
-        <v>169.0102039825136</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4500,10 +4500,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>813.4234542598375</v>
+        <v>812.4003081753548</v>
       </c>
       <c r="V4" t="n">
-        <v>558.7389660539507</v>
+        <v>557.7158199694679</v>
       </c>
       <c r="W4" t="n">
-        <v>558.7389660539507</v>
+        <v>557.7158199694679</v>
       </c>
       <c r="X4" t="n">
-        <v>558.7389660539507</v>
+        <v>557.7158199694679</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.9463869104205</v>
+        <v>336.9232408259378</v>
       </c>
     </row>
     <row r="5">
@@ -4546,43 +4546,43 @@
         <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4682,16 +4682,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460803</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405475</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755936</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
         <v>36.32155393434482</v>
@@ -4725,22 +4725,22 @@
         <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1006.165828748957</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1006.165828748957</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1006.165828748957</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1006.165828748957</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>751.4813405430702</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>485.1036839758923</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1840.478091794297</v>
+        <v>1463.472841621527</v>
       </c>
       <c r="C8" t="n">
-        <v>1471.515574853886</v>
+        <v>1094.510324681115</v>
       </c>
       <c r="D8" t="n">
-        <v>1113.249876247135</v>
+        <v>736.244626074365</v>
       </c>
       <c r="E8" t="n">
-        <v>727.461623648891</v>
+        <v>350.4563734761207</v>
       </c>
       <c r="F8" t="n">
-        <v>316.4757188592834</v>
+        <v>343.5108727269173</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607441</v>
+        <v>442.1757437607436</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045958</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
         <v>1219.647962995231</v>
@@ -4819,16 +4819,16 @@
         <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550206</v>
       </c>
       <c r="Q8" t="n">
         <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
         <v>2435.830015762146</v>
@@ -4846,10 +4846,10 @@
         <v>2227.077931858419</v>
       </c>
       <c r="X8" t="n">
-        <v>2227.077931858419</v>
+        <v>1853.612173597339</v>
       </c>
       <c r="Y8" t="n">
-        <v>2227.077931858419</v>
+        <v>1463.472841621527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010873</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199603</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.122281858709</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532535</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801385</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993894</v>
+        <v>71.66559839993893</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J9" t="n">
-        <v>143.0521112394768</v>
+        <v>238.318882950724</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330294</v>
+        <v>684.7364639442766</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665115</v>
+        <v>979.2724473777587</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140814</v>
+        <v>1342.338915852061</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613384</v>
+        <v>1729.423318324631</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600774</v>
+        <v>2061.310128312021</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030399</v>
+        <v>2308.345486741646</v>
       </c>
       <c r="Q9" t="n">
         <v>2536.272628442635</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
         <v>2424.826280251708</v>
@@ -4916,19 +4916,19 @@
         <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751586</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519844</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791642</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586109</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821155</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.8859175407116</v>
+        <v>370.2640775470985</v>
       </c>
       <c r="C10" t="n">
-        <v>664.9497346128047</v>
+        <v>201.3278946191916</v>
       </c>
       <c r="D10" t="n">
-        <v>514.833095200469</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="E10" t="n">
-        <v>514.833095200469</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9431477025586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422493</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.21125520685585</v>
       </c>
       <c r="J10" t="n">
         <v>76.63468308380189</v>
@@ -4995,19 +4995,19 @@
         <v>1635.769145477366</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972008</v>
+        <v>1544.796330661733</v>
       </c>
       <c r="V10" t="n">
-        <v>1346.650771972008</v>
+        <v>1290.111842455846</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.233601935047</v>
+        <v>1000.694672418886</v>
       </c>
       <c r="X10" t="n">
-        <v>1057.233601935047</v>
+        <v>772.7051215208684</v>
       </c>
       <c r="Y10" t="n">
-        <v>836.4410227915172</v>
+        <v>551.9125423773382</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,16 +6010,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,22 +6469,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,28 +7420,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7563,10 +7563,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775127</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>29.86197300581566</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>113.8482254012556</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>65.54986409393068</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>39.70888054695402</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
@@ -26322,37 +26322,37 @@
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="O2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520051</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580812</v>
+        <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606909</v>
+        <v>507909.2320606913</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101825</v>
+        <v>95270.23779101823</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954684</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555017</v>
+        <v>139261.6527555018</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26438,10 +26438,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26459,7 +26459,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
         <v>92902.86757567915</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336635.0338788946</v>
+        <v>-336635.033878895</v>
       </c>
       <c r="C6" t="n">
         <v>343452.9467122984</v>
       </c>
       <c r="D6" t="n">
-        <v>33988.88790216442</v>
+        <v>33988.88790216445</v>
       </c>
       <c r="E6" t="n">
-        <v>25781.05032626843</v>
+        <v>26093.69165518953</v>
       </c>
       <c r="F6" t="n">
-        <v>533690.2823869596</v>
+        <v>534002.9237158817</v>
       </c>
       <c r="G6" t="n">
-        <v>533690.2823869594</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="H6" t="n">
-        <v>533690.2823869595</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="I6" t="n">
-        <v>533690.2823869594</v>
+        <v>534002.923715881</v>
       </c>
       <c r="J6" t="n">
-        <v>464691.1279678452</v>
+        <v>465003.7692967667</v>
       </c>
       <c r="K6" t="n">
-        <v>533690.2823869599</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="L6" t="n">
-        <v>438420.0445959413</v>
+        <v>438732.6859248623</v>
       </c>
       <c r="M6" t="n">
-        <v>400972.306691491</v>
+        <v>401284.9480204126</v>
       </c>
       <c r="N6" t="n">
-        <v>533690.2823869595</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="O6" t="n">
-        <v>533690.2823869594</v>
+        <v>534002.923715881</v>
       </c>
       <c r="P6" t="n">
-        <v>533690.2823869599</v>
+        <v>534002.9237158812</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856982</v>
+        <v>640.1406900856981</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>319.6474457933062</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788889</v>
+        <v>434.2730407788894</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841921</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-2.278621509517263e-15</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841921</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841921</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139499</v>
+        <v>532.5675980139505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>340.1987280813171</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381485</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27511,7 +27511,7 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.8381558607671</v>
+        <v>18.12324020935293</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27593,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>47.24088541395233</v>
+        <v>46.22797079031417</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2380307610665</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114899</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>177.4358965225431</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>79.3018085391669</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984469</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>148.9373407723463</v>
+        <v>122.1725384433887</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164521154</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164520784</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.3024259836398</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430994</v>
@@ -28067,16 +28067,16 @@
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>196.1641031028279</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34783,13 +34783,13 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572285</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34868,7 +34868,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>92.76854144709185</v>
+        <v>188.997603781685</v>
       </c>
       <c r="K9" t="n">
         <v>450.926849488437</v>
@@ -35272,7 +35272,7 @@
         <v>249.5306650804294</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961982</v>
+        <v>230.2294360616047</v>
       </c>
       <c r="R9" t="n">
         <v>24.53548676783596</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
